--- a/indices.xlsx
+++ b/indices.xlsx
@@ -1,37 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myjunia.sharepoint.com/teams/STUDENT_EMERGING_MARKETS_MEMOIRE_2023/Shared Documents/General/Memoire_M2_2023/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_A4FF1D5109419B82BD19AEC2ED4913AF68FE99A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>CAC40</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>Hang Seng</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +67,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,496 +391,484 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>CAC40</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>S&amp;P 500</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Hang Seng</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1990</v>
       </c>
-      <c r="B2" t="n">
-        <v>-0.1763100436681223</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-0.08193166337679658</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0655015311584688</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="B2">
+        <v>-0.17631004366812231</v>
+      </c>
+      <c r="C2">
+        <v>-8.1931663376796582E-2</v>
+      </c>
+      <c r="D2">
+        <v>6.5501531158468795E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1991</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.1732225588039868</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2776535457190994</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4177828455955128</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="B3">
+        <v>0.17322255880398679</v>
+      </c>
+      <c r="C3">
+        <v>0.27765354571909939</v>
+      </c>
+      <c r="D3">
+        <v>0.41778284559551282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>1992</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.06166067976463996</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.04421703494224216</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2814171165271138</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="B4">
+        <v>6.1660679764639958E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.4217034942242162E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.28141711652711382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>1993</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>0.2306440130950336</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.07136294731039561</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.186251943307795</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="C5">
+        <v>7.1362947310395608E-2</v>
+      </c>
+      <c r="D5">
+        <v>1.1862519433077949</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>1994</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-0.1787305201625814</v>
       </c>
-      <c r="C6" t="n">
-        <v>-0.01325627363355109</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.3223017416125429</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="C6">
+        <v>-1.3256273633551091E-2</v>
+      </c>
+      <c r="D6">
+        <v>-0.32230174161254288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>1995</v>
       </c>
-      <c r="B7" t="n">
-        <v>-0.00737049887221386</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3415739147480994</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.2842008981461623</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="B7">
+        <v>-7.3704988722138598E-3</v>
+      </c>
+      <c r="C7">
+        <v>0.34157391474809939</v>
+      </c>
+      <c r="D7">
+        <v>0.28420089814616228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>1996</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.2134248175842615</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1933368775474038</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.3181412345644523</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="B8">
+        <v>0.21342481758426149</v>
+      </c>
+      <c r="C8">
+        <v>0.19333687754740381</v>
+      </c>
+      <c r="D8">
+        <v>0.31814123456445231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>1997</v>
       </c>
-      <c r="B9" t="n">
-        <v>0.3287106344705362</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3167121205953787</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="B9">
+        <v>0.32871063447053622</v>
+      </c>
+      <c r="C9">
+        <v>0.31671212059537868</v>
+      </c>
+      <c r="D9">
         <v>-0.1878758889786363</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>1998</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>0.2974824680214041</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.2606969970462751</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-0.0591745364621129</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="C10">
+        <v>0.26069699704627508</v>
+      </c>
+      <c r="D10">
+        <v>-5.9174536462112903E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>1999</v>
       </c>
-      <c r="B11" t="n">
-        <v>0.4366051414104883</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1963602312515269</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.7292084594189174</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="B11">
+        <v>0.43660514141048828</v>
+      </c>
+      <c r="C11">
+        <v>0.19636023125152691</v>
+      </c>
+      <c r="D11">
+        <v>0.72920845941891743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>2000</v>
       </c>
-      <c r="B12" t="n">
-        <v>0.001529362676504054</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-0.09272824727532614</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-0.13092394446723</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="B12">
+        <v>1.529362676504054E-3</v>
+      </c>
+      <c r="C12">
+        <v>-9.2728247275326137E-2</v>
+      </c>
+      <c r="D12">
+        <v>-0.13092394446722999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>2001</v>
       </c>
-      <c r="B13" t="n">
-        <v>-0.2025073451595509</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-0.1053480561378354</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="B13">
+        <v>-0.20250734515955091</v>
+      </c>
+      <c r="C13">
+        <v>-0.10534805613783541</v>
+      </c>
+      <c r="D13">
         <v>-0.2335403080696806</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>2002</v>
       </c>
-      <c r="B14" t="n">
-        <v>-0.3310882903245559</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-0.2380333775017971</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-0.1788024368141377</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="B14">
+        <v>-0.33108829032455589</v>
+      </c>
+      <c r="C14">
+        <v>-0.23803337750179709</v>
+      </c>
+      <c r="D14">
+        <v>-0.17880243681413771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>2003</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.1135767161797003</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.2231939539949177</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.3427915438511939</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="D15">
+        <v>0.34279154385119393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>2004</v>
       </c>
-      <c r="B16" t="n">
-        <v>0.06237763009994901</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.09331697459584309</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="B16">
+        <v>6.2377630099949011E-2</v>
+      </c>
+      <c r="C16">
+        <v>9.3316974595843094E-2</v>
+      </c>
+      <c r="D16">
         <v>0.1116010903941644</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>2005</v>
       </c>
-      <c r="B17" t="n">
-        <v>0.2229308612642384</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.03844170105151079</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.04488241335163456</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="B17">
+        <v>0.22293086126423839</v>
+      </c>
+      <c r="C17">
+        <v>3.844170105151079E-2</v>
+      </c>
+      <c r="D17">
+        <v>4.4882413351634558E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>2006</v>
       </c>
-      <c r="B18" t="n">
-        <v>0.165479094686634</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.117827868852459</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.3359002065295884</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="B18">
+        <v>0.16547909468663399</v>
+      </c>
+      <c r="C18">
+        <v>0.11782786885245899</v>
+      </c>
+      <c r="D18">
+        <v>0.33590020652958841</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>2007</v>
       </c>
-      <c r="B19" t="n">
-        <v>-0.0006461499481460464</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.03653819003247216</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.3693946000602217</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="B19">
+        <v>-6.4614994814604643E-4</v>
+      </c>
+      <c r="C19">
+        <v>3.6538190032472162E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.36939460006022168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>2008</v>
       </c>
-      <c r="B20" t="n">
-        <v>-0.4202231836440475</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-0.37584648553028</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-0.4779677337788572</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="B20">
+        <v>-0.42022318364404748</v>
+      </c>
+      <c r="C20">
+        <v>-0.37584648553027999</v>
+      </c>
+      <c r="D20">
+        <v>-0.47796773377885721</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>2009</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>0.1751326681970056</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.19671603348358</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.4540169439903374</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="C21">
+        <v>0.19671603348357999</v>
+      </c>
+      <c r="D21">
+        <v>0.45401694399033737</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>2010</v>
       </c>
-      <c r="B22" t="n">
-        <v>-0.04066048380509923</v>
-      </c>
-      <c r="C22" t="n">
+      <c r="B22">
+        <v>-4.0660483805099228E-2</v>
+      </c>
+      <c r="C22">
         <v>0.1100186232888198</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.05554481091055052</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="D22">
+        <v>5.5544810910550517E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>2011</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>-0.1899709365814487</v>
       </c>
-      <c r="C23" t="n">
-        <v>-0.01121970012658524</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-0.2134173629652198</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="C23">
+        <v>-1.121970012658524E-2</v>
+      </c>
+      <c r="D23">
+        <v>-0.21341736296521979</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>2012</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>0.1155019748934472</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.1167760324495326</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.2002133626788163</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="C24">
+        <v>0.11677603244953259</v>
+      </c>
+      <c r="D24">
+        <v>0.20021336267881629</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>2013</v>
       </c>
-      <c r="B25" t="n">
-        <v>0.1505170887604113</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.2639050341215246</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-0.0002397841748122964</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="B25">
+        <v>0.15051708876041131</v>
+      </c>
+      <c r="C25">
+        <v>0.26390503412152461</v>
+      </c>
+      <c r="D25">
+        <v>-2.3978417481229641E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>2014</v>
       </c>
-      <c r="B26" t="n">
-        <v>0.01075637698771348</v>
-      </c>
-      <c r="C26" t="n">
+      <c r="B26">
+        <v>1.075637698771348E-2</v>
+      </c>
+      <c r="C26">
         <v>0.1238659810696623</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.01135337212786669</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="D26">
+        <v>1.135337212786669E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>2015</v>
       </c>
-      <c r="B27" t="n">
-        <v>0.09991089368398565</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-0.006928384024875944</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-0.07617206183934366</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="B27">
+        <v>9.9910893683985647E-2</v>
+      </c>
+      <c r="C27">
+        <v>-6.9283840248759443E-3</v>
+      </c>
+      <c r="D27">
+        <v>-7.6172061839343663E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>2016</v>
       </c>
-      <c r="B28" t="n">
-        <v>0.07514949846783225</v>
-      </c>
-      <c r="C28" t="n">
+      <c r="B28">
+        <v>7.5149498467832254E-2</v>
+      </c>
+      <c r="C28">
         <v>0.1123736746395316</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.03157676391019715</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="D28">
+        <v>3.1576763910197148E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>2017</v>
       </c>
-      <c r="B29" t="n">
-        <v>0.08810870647281033</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.1841502681778522</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.3507272944445983</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="B29">
+        <v>8.8108706472810328E-2</v>
+      </c>
+      <c r="C29">
+        <v>0.18415026817785221</v>
+      </c>
+      <c r="D29">
+        <v>0.35072729444459833</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>2018</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>-0.1054929748254148</v>
       </c>
-      <c r="C30" t="n">
-        <v>-0.07009396062778905</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-0.1530251943793205</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="C30">
+        <v>-7.0093960627789054E-2</v>
+      </c>
+      <c r="D30">
+        <v>-0.15302519437932049</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>2019</v>
       </c>
-      <c r="B31" t="n">
-        <v>0.2748054404414337</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.2871479623749518</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.1217412586215803</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="B31">
+        <v>0.27480544044143368</v>
+      </c>
+      <c r="C31">
+        <v>0.28714796237495183</v>
+      </c>
+      <c r="D31">
+        <v>0.12174125862158031</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>2020</v>
       </c>
-      <c r="B32" t="n">
-        <v>-0.08112055681536046</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.1529290789938149</v>
-      </c>
-      <c r="D32" t="n">
-        <v>-0.04597851608925341</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="B32">
+        <v>-8.1120556815360456E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.15292907899381489</v>
+      </c>
+      <c r="D32">
+        <v>-4.5978516089253407E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>2021</v>
       </c>
-      <c r="B33" t="n">
-        <v>0.2798498888727323</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.287930498696175</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="B33">
+        <v>0.27984988887273232</v>
+      </c>
+      <c r="C33">
+        <v>0.28793049869617499</v>
+      </c>
+      <c r="D33">
         <v>-0.1483335903339166</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>2022</v>
       </c>
-      <c r="B34" t="n">
-        <v>-0.1030120221986326</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-0.1995304968560803</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-0.1500914013684357</v>
+      <c r="B34">
+        <v>-0.10301202219863261</v>
+      </c>
+      <c r="C34">
+        <v>-0.19953049685608029</v>
+      </c>
+      <c r="D34">
+        <v>-0.15009140136843571</v>
       </c>
     </row>
   </sheetData>
@@ -918,6 +877,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AD713FF87E5B9F469D753B24FFFEE3C3" ma:contentTypeVersion="9" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c38a46b315577503d84d010574c1421d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6e69700f-71ad-4d8d-94ed-9106ff4b281c" xmlns:ns3="f3877c1a-f6bf-41d7-94b8-b9d5d16879b5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6eb623e45cee2c685d95ea31f364537d" ns2:_="" ns3:_="">
     <xsd:import namespace="6e69700f-71ad-4d8d-94ed-9106ff4b281c"/>
@@ -1100,19 +1068,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47C2F126-687D-4DB8-822F-DF5DE3ABDC5A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42D3305B-4212-4261-BB88-A8DEDD2E9E54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42D3305B-4212-4261-BB88-A8DEDD2E9E54}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47C2F126-687D-4DB8-822F-DF5DE3ABDC5A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6e69700f-71ad-4d8d-94ed-9106ff4b281c"/>
+    <ds:schemaRef ds:uri="f3877c1a-f6bf-41d7-94b8-b9d5d16879b5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>